--- a/Santé-automat/resultats.xlsx
+++ b/Santé-automat/resultats.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Graphiques" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -141,6 +142,2441 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de Hématies</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de Plaquettes</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de Créatinine</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de Phosphatase alcaline</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de ASAT (Transaminases TGO)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de ALAT (Transaminases TGP)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de GGT (Gamma Glutamyl Transpeptidase)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de Hémoglobine</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$3</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$3</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de Hématocrite</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de Leucocytes</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$5</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de Polynucléaires neutrophiles</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de Polynucléaires éosinophiles</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de Polynucléaires basophiles</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de Lymphocytes</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$9</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$9</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Évolution de Monocytes</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$B$1:$C$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Valeur</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="9" name="Chart 9"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="10" name="Chart 10"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="11" name="Chart 11"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="12" name="Chart 12"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>90</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="13" name="Chart 13"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>90</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="14" name="Chart 14"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>105</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="15" name="Chart 15"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,7 +2868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,27 +2884,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>inconnue</t>
+          <t>29-08-2025</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>29-08-2025</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>29-08-2025_intervalle</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>01-10-2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>01-10-2025_intervalle</t>
         </is>
       </c>
     </row>
@@ -478,21 +2899,11 @@
           <t>Hématies</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>5.05</v>
+      </c>
       <c r="C2" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4,28-6,00</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
         <v>5.14</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4,28-6,00</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -501,21 +2912,11 @@
           <t>Hémoglobine</t>
         </is>
       </c>
+      <c r="B3" s="2" t="n">
+        <v>14.6</v>
+      </c>
       <c r="C3" s="2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13,4-16,7</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
         <v>14.9</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13,4-16,7</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -524,21 +2925,11 @@
           <t>Hématocrite</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>44</v>
+      </c>
       <c r="C4" t="n">
-        <v>44</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>39-49</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
         <v>46</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>39-49</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -547,21 +2938,11 @@
           <t>Leucocytes</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>7.87</v>
+      </c>
       <c r="C5" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4,00-11,00</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
         <v>6.51</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4,00-11,00</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -570,10 +2951,10 @@
           <t>Polynucléaires neutrophiles</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>63.8</v>
+      </c>
       <c r="C6" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="E6" t="n">
         <v>51.8</v>
       </c>
     </row>
@@ -583,10 +2964,10 @@
           <t>Polynucléaires éosinophiles</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>0.9</v>
+      </c>
       <c r="C7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E7" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -596,10 +2977,10 @@
           <t>Polynucléaires basophiles</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>0.4</v>
+      </c>
       <c r="C8" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E8" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -609,10 +2990,10 @@
           <t>Lymphocytes</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>29.7</v>
+      </c>
       <c r="C9" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="E9" t="n">
         <v>38.9</v>
       </c>
     </row>
@@ -622,10 +3003,10 @@
           <t>Monocytes</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>5.2</v>
+      </c>
       <c r="C10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E10" t="n">
         <v>6.8</v>
       </c>
     </row>
@@ -635,21 +3016,11 @@
           <t>Plaquettes</t>
         </is>
       </c>
+      <c r="B11" s="2" t="n">
+        <v>232</v>
+      </c>
       <c r="C11" s="2" t="n">
-        <v>232</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>150-400</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
         <v>259</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>150-400</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -658,318 +3029,94 @@
           <t>Créatinine</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="C12" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>53,0-97,0</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
         <v>87</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>53,0-97,0</t>
-        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(Méthode enzymatique standardisée IDMS)</t>
+          <t>Phosphatase alcaline</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>164</v>
+      </c>
       <c r="C13" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6,0-11,0</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6,0-11,0</t>
-        </is>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phosphatase alcaline</t>
+          <t>ASAT (Transaminases TGO)</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
       <c r="C14" t="n">
-        <v>164</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>46-116</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>153</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>46-116</t>
-        </is>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASAT (Transaminases TGO)</t>
+          <t>ALAT (Transaminases TGP)</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>23</v>
+      </c>
       <c r="C15" t="n">
-        <v>24</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>&lt;40</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ALAT (Transaminases TGP)</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>23</v>
-      </c>
-      <c r="E16" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
           <t>GGT (Gamma Glutamyl Transpeptidase)</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="B16" t="n">
         <v>13</v>
       </c>
-      <c r="E17" t="n">
+      <c r="C16" t="n">
         <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Enregistré le</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>29</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>V.G.M.</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>78,0-98,0</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>78,0-98,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>T.C.M.H.</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>26,0-34,0</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>29</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>26,0-34,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>C.C.M.H.</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>31,0-36,5</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>31,0-36,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Dossier</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>25</v>
-      </c>
-      <c r="E22" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Prélevé le</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>29</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Le DFG estimé est considéré comme légèrement diminué entre</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>60</v>
-      </c>
-      <c r="E24" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>valeurs inférieures à</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>60</v>
-      </c>
-      <c r="E25" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>(Méthode enzymatique IFCC) ASAT (Transaminases TGO)</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>LABORIZON MAINE ANJOU Dossier</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>M VOIRON Aurelien (Né VOIRON) né(e)</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>échantillons et des données personnelles et médicales collectées par Biogroup (articles</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Modification des valeurs de référence des lymphocytes à partir du</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>(Méthode enzymatique IFCC)</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Score(s) de fibrose hépatique</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="16"/>
+    <row r="31"/>
+    <row r="46"/>
+    <row r="61"/>
+    <row r="76"/>
+    <row r="91"/>
+    <row r="106"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Santé-automat/resultats.xlsx
+++ b/Santé-automat/resultats.xlsx
@@ -183,12 +183,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$2</f>
+              <f>'Sheet1'!$E$2</f>
             </numRef>
           </val>
         </ser>
@@ -210,12 +210,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$2</f>
+              <f>'Sheet1'!$F$2</f>
             </numRef>
           </val>
         </ser>
@@ -323,12 +323,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$11</f>
+              <f>'Sheet1'!$E$11</f>
             </numRef>
           </val>
         </ser>
@@ -350,12 +350,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$11</f>
+              <f>'Sheet1'!$F$11</f>
             </numRef>
           </val>
         </ser>
@@ -463,12 +463,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$12</f>
+              <f>'Sheet1'!$E$12</f>
             </numRef>
           </val>
         </ser>
@@ -490,12 +490,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$12</f>
+              <f>'Sheet1'!$F$12</f>
             </numRef>
           </val>
         </ser>
@@ -603,12 +603,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$13</f>
+              <f>'Sheet1'!$E$13</f>
             </numRef>
           </val>
         </ser>
@@ -630,12 +630,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$13</f>
+              <f>'Sheet1'!$F$13</f>
             </numRef>
           </val>
         </ser>
@@ -743,12 +743,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$14</f>
+              <f>'Sheet1'!$E$14</f>
             </numRef>
           </val>
         </ser>
@@ -770,12 +770,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$14</f>
+              <f>'Sheet1'!$F$14</f>
             </numRef>
           </val>
         </ser>
@@ -883,12 +883,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$15</f>
+              <f>'Sheet1'!$E$15</f>
             </numRef>
           </val>
         </ser>
@@ -910,12 +910,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$15</f>
+              <f>'Sheet1'!$F$15</f>
             </numRef>
           </val>
         </ser>
@@ -1023,12 +1023,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$16</f>
+              <f>'Sheet1'!$E$16</f>
             </numRef>
           </val>
         </ser>
@@ -1050,12 +1050,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$16</f>
+              <f>'Sheet1'!$F$16</f>
             </numRef>
           </val>
         </ser>
@@ -1163,12 +1163,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$3</f>
+              <f>'Sheet1'!$E$3</f>
             </numRef>
           </val>
         </ser>
@@ -1190,12 +1190,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$3</f>
+              <f>'Sheet1'!$F$3</f>
             </numRef>
           </val>
         </ser>
@@ -1303,12 +1303,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$4</f>
+              <f>'Sheet1'!$E$4</f>
             </numRef>
           </val>
         </ser>
@@ -1330,12 +1330,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$4</f>
+              <f>'Sheet1'!$F$4</f>
             </numRef>
           </val>
         </ser>
@@ -1443,12 +1443,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$5</f>
+              <f>'Sheet1'!$E$5</f>
             </numRef>
           </val>
         </ser>
@@ -1470,12 +1470,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$5</f>
+              <f>'Sheet1'!$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -1583,12 +1583,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$6</f>
+              <f>'Sheet1'!$E$6</f>
             </numRef>
           </val>
         </ser>
@@ -1610,12 +1610,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$6</f>
+              <f>'Sheet1'!$F$6</f>
             </numRef>
           </val>
         </ser>
@@ -1723,12 +1723,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$7</f>
+              <f>'Sheet1'!$E$7</f>
             </numRef>
           </val>
         </ser>
@@ -1750,12 +1750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$7</f>
+              <f>'Sheet1'!$F$7</f>
             </numRef>
           </val>
         </ser>
@@ -1863,12 +1863,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$8</f>
+              <f>'Sheet1'!$E$8</f>
             </numRef>
           </val>
         </ser>
@@ -1890,12 +1890,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$8</f>
+              <f>'Sheet1'!$F$8</f>
             </numRef>
           </val>
         </ser>
@@ -2003,12 +2003,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$9</f>
+              <f>'Sheet1'!$E$9</f>
             </numRef>
           </val>
         </ser>
@@ -2030,12 +2030,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$9</f>
+              <f>'Sheet1'!$F$9</f>
             </numRef>
           </val>
         </ser>
@@ -2143,12 +2143,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$10</f>
+              <f>'Sheet1'!$E$10</f>
             </numRef>
           </val>
         </ser>
@@ -2170,12 +2170,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$1:$C$1</f>
+              <f>'Sheet1'!$E$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$10</f>
+              <f>'Sheet1'!$F$10</f>
             </numRef>
           </val>
         </ser>
@@ -2868,7 +2868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2884,12 +2884,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unité</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>29-08-2025</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>01-10-2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unité</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Unité.1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Min.1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Max.1</t>
         </is>
       </c>
     </row>
@@ -2899,11 +2944,26 @@
           <t>Hématies</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>T/L</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>5.05</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>5.14</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>T/L</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>T/L</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2912,11 +2972,26 @@
           <t>Hémoglobine</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>14.6</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="F3" s="2" t="n">
         <v>14.9</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -2925,11 +3000,26 @@
           <t>Hématocrite</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>44</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" t="n">
         <v>46</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2938,11 +3028,26 @@
           <t>Leucocytes</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>G/L</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>7.87</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>6.51</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>G/L</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>G/L</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2951,11 +3056,26 @@
           <t>Polynucléaires neutrophiles</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>63.8</v>
       </c>
-      <c r="C6" t="n">
+      <c r="F6" t="n">
         <v>51.8</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2964,11 +3084,26 @@
           <t>Polynucléaires éosinophiles</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>0.9</v>
       </c>
-      <c r="C7" t="n">
+      <c r="F7" t="n">
         <v>1.7</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2977,11 +3112,26 @@
           <t>Polynucléaires basophiles</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>0.4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>0.8</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2990,11 +3140,26 @@
           <t>Lymphocytes</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>29.7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="F9" t="n">
         <v>38.9</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -3003,11 +3168,26 @@
           <t>Monocytes</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>5.2</v>
       </c>
-      <c r="C10" t="n">
+      <c r="F10" t="n">
         <v>6.8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -3016,11 +3196,26 @@
           <t>Plaquettes</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>G/L</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="F11" s="2" t="n">
         <v>259</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>G/L</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>G/L</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -3029,11 +3224,26 @@
           <t>Créatinine</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="C12" t="n">
+      <c r="F12" t="n">
         <v>87</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -3042,11 +3252,26 @@
           <t>Phosphatase alcaline</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>164</v>
       </c>
-      <c r="C13" t="n">
+      <c r="F13" t="n">
         <v>153</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -3055,11 +3280,26 @@
           <t>ASAT (Transaminases TGO)</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>24</v>
       </c>
-      <c r="C14" t="n">
+      <c r="F14" t="n">
         <v>18</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -3068,11 +3308,26 @@
           <t>ALAT (Transaminases TGP)</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>23</v>
       </c>
-      <c r="C15" t="n">
+      <c r="F15" t="n">
         <v>16</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -3081,11 +3336,26 @@
           <t>GGT (Gamma Glutamyl Transpeptidase)</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>13</v>
       </c>
-      <c r="C16" t="n">
+      <c r="F16" t="n">
         <v>13</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Santé-automat/resultats.xlsx
+++ b/Santé-automat/resultats.xlsx
@@ -2868,7 +2868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2924,15 +2924,45 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Unité.3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Min.3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Max.3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Unité.2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Min.2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Max.2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Unité.1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Min.1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Max.1</t>
         </is>
@@ -2965,6 +2995,16 @@
           <t>T/L</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>T/L</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>T/L</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2993,6 +3033,16 @@
           <t>g/dL</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3021,6 +3071,16 @@
           <t>%</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3049,6 +3109,16 @@
           <t>G/L</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>G/L</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>G/L</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3077,6 +3147,16 @@
           <t>%</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3105,6 +3185,16 @@
           <t>%</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3133,6 +3223,16 @@
           <t>%</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3161,6 +3261,16 @@
           <t>%</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3189,6 +3299,16 @@
           <t>%</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3217,6 +3337,16 @@
           <t>G/L</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>G/L</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>G/L</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3245,6 +3375,16 @@
           <t>µmol/L</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>µmol/L</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3273,6 +3413,16 @@
           <t>U/L</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3301,6 +3451,16 @@
           <t>U/L</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3329,6 +3489,16 @@
           <t>U/L</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3353,6 +3523,16 @@
         </is>
       </c>
       <c r="J16" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
